--- a/Experiments/230126_ppk/genex_destination.xlsx
+++ b/Experiments/230126_ppk/genex_destination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230126_ppk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0936BEFA-6C1E-994E-8ACD-EFBF21528C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082F0AB-34F7-B240-87B7-A893F3CE6C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{76D38BF9-860E-4B75-9878-D13CDDC495A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>old_GFP_0</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>gfp_6</t>
+  </si>
+  <si>
+    <t>mt_only</t>
+  </si>
+  <si>
+    <t>pa_only</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K2" sqref="K2:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,6 +815,12 @@
       <c r="I2" t="s">
         <v>81</v>
       </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -838,6 +850,12 @@
       <c r="I3" t="s">
         <v>80</v>
       </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -867,6 +885,12 @@
       <c r="I4" t="s">
         <v>82</v>
       </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -896,6 +920,12 @@
       <c r="I5" t="s">
         <v>83</v>
       </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -922,6 +952,12 @@
       <c r="I6" t="s">
         <v>84</v>
       </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -951,6 +987,12 @@
       <c r="I7" t="s">
         <v>85</v>
       </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -974,7 +1016,16 @@
       <c r="G8" t="s">
         <v>75</v>
       </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1006,6 +1057,12 @@
       <c r="I9" t="s">
         <v>87</v>
       </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1035,6 +1092,12 @@
       <c r="I10" t="s">
         <v>88</v>
       </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1061,6 +1124,12 @@
       <c r="I11" t="s">
         <v>89</v>
       </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1087,6 +1156,12 @@
       <c r="I12" t="s">
         <v>90</v>
       </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1110,6 +1185,12 @@
       <c r="I13" t="s">
         <v>91</v>
       </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1133,6 +1214,12 @@
       <c r="I14" t="s">
         <v>71</v>
       </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1170,6 +1257,9 @@
       <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
       <c r="H16" t="s">
         <v>99</v>
       </c>
@@ -1189,6 +1279,9 @@
       </c>
       <c r="F17" s="1">
         <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>100</v>
